--- a/data_year/zb/文化/录音制品出版情况.xlsx
+++ b/data_year/zb/文化/录音制品出版情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,90 +523,136 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>23854.96</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10639</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25680.61</v>
+      </c>
       <c r="E2" t="n">
-        <v>11128.44</v>
+        <v>17403.52</v>
       </c>
       <c r="F2" t="n">
-        <v>6175</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+        <v>3336</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5752.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6724</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2077.78</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1365</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2765.81</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4020</v>
+      </c>
+      <c r="M2" t="n">
+        <v>908.8200000000001</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1339</v>
+      </c>
       <c r="O2" t="n">
-        <v>1031.86</v>
+        <v>3947.39</v>
       </c>
       <c r="P2" t="n">
-        <v>2799</v>
+        <v>5086</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.2</v>
+        <v>2504.05</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>24642.75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9931</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26047.38</v>
+      </c>
       <c r="E3" t="n">
-        <v>12057.07</v>
+        <v>18757.06</v>
       </c>
       <c r="F3" t="n">
-        <v>6449</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+        <v>3250</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4743.56</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5848</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1797.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1322</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2156.31</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3456</v>
+      </c>
+      <c r="M3" t="n">
+        <v>790.15</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1070</v>
+      </c>
       <c r="O3" t="n">
-        <v>1647.95</v>
+        <v>3731.56</v>
       </c>
       <c r="P3" t="n">
-        <v>3072</v>
+        <v>4716</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2154.13</v>
       </c>
       <c r="R3" t="n">
-        <v>5</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>19662.4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8598</v>
-      </c>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>22385.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9505</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28230.4</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -615,34 +661,26 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>2916</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3691</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>7</v>
-      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>23383.4681</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9860</v>
+      </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>17646.3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8502</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -651,34 +689,26 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>4340.53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4810</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="R5" t="n">
-        <v>21</v>
-      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>21358.42</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8713</v>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>15606.47</v>
-      </c>
-      <c r="F6" t="n">
-        <v>8724</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -687,34 +717,26 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>4920.12</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6509</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>101.79</v>
-      </c>
-      <c r="R6" t="n">
-        <v>173</v>
-      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18676.7314</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8259</v>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>15156.87</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8433</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -723,34 +745,26 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
-        <v>7111.93</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7493</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="R7" t="n">
-        <v>34</v>
-      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>17756.6127</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6391</v>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>18430.13</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8176</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -759,34 +773,26 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
-        <v>6415.71</v>
-      </c>
-      <c r="P8" t="n">
-        <v>6774</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>26.93</v>
-      </c>
-      <c r="R8" t="n">
-        <v>56</v>
-      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>16931.9331</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6571</v>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>14652.81</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6989</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -795,448 +801,66 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>5195.86</v>
-      </c>
-      <c r="P9" t="n">
-        <v>7475</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>719.9299999999999</v>
-      </c>
-      <c r="R9" t="n">
-        <v>850</v>
-      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25399.25</v>
+        <v>12194.6666</v>
       </c>
       <c r="C10" t="n">
-        <v>11721</v>
-      </c>
-      <c r="D10" t="n">
-        <v>24911.85</v>
-      </c>
-      <c r="E10" t="n">
-        <v>19645.06</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4581</v>
-      </c>
-      <c r="G10" t="n">
-        <v>11168.91</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7733</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6856.15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1906</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3632.57</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4718</v>
-      </c>
-      <c r="M10" t="n">
-        <v>680.1900000000001</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1109</v>
-      </c>
-      <c r="O10" t="n">
-        <v>4404.91</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5578</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1349.28</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1562</v>
-      </c>
+        <v>5312</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23675.48</v>
+        <v>12448.0110000001</v>
       </c>
       <c r="C11" t="n">
-        <v>12315</v>
-      </c>
-      <c r="D11" t="n">
-        <v>26226.91</v>
-      </c>
-      <c r="E11" t="n">
-        <v>16584.17</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3998</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7660.23</v>
-      </c>
-      <c r="H11" t="n">
-        <v>8307</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2702.7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1620</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3921.48</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5425</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1036.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1262</v>
-      </c>
-      <c r="O11" t="n">
-        <v>4681.42</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6426</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2409.89</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23854.96</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10639</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25680.61</v>
-      </c>
-      <c r="E12" t="n">
-        <v>17403.52</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3336</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5752.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6724</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2077.78</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1365</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2765.81</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4020</v>
-      </c>
-      <c r="M12" t="n">
-        <v>908.8200000000001</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1339</v>
-      </c>
-      <c r="O12" t="n">
-        <v>3947.39</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5086</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2504.05</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>24642.75</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9931</v>
-      </c>
-      <c r="D13" t="n">
-        <v>26047.38</v>
-      </c>
-      <c r="E13" t="n">
-        <v>18757.06</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3250</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4743.56</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5848</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1797.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1322</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2156.31</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3456</v>
-      </c>
-      <c r="M13" t="n">
-        <v>790.15</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1070</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3731.56</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4716</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2154.13</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>22385.1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9505</v>
-      </c>
-      <c r="D14" t="n">
-        <v>28230.4</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>23383.4681</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9860</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>21358.42</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8713</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>18676.7314</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8259</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17756.6127</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6391</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>16931.9331</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6571</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>12194.6666</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5312</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+        <v>4799</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
